--- a/HyperRail/PCB Files/Integrated Stepper Motor Driver/BOM/BOM_PartType-Integrated Stepper Motor Driver.xlsx
+++ b/HyperRail/PCB Files/Integrated Stepper Motor Driver/BOM/BOM_PartType-Integrated Stepper Motor Driver.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9FCFD82-9709-46F8-9D88-28F24634CB2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorian Bruslind\Documents\GitHub\PersonalProjects\HyperRail\PCB Files\Integrated Stepper Motor Driver\BOM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160A4211-2EDC-44CA-AB71-6424AF210DC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="19170" windowHeight="10170" xr2:uid="{3F7F2804-6865-49DA-9CB9-E467399E9372}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3F7F2804-6865-49DA-9CB9-E467399E9372}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_PartType-Integrated Stepper" sheetId="1" r:id="rId1"/>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="104">
   <si>
     <t>Capacitance</t>
   </si>
@@ -329,13 +334,25 @@
   </si>
   <si>
     <t>CMP-3786467-11</t>
+  </si>
+  <si>
+    <t>54601-906WPLF</t>
+  </si>
+  <si>
+    <t>1825057-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMC2209-LA-T </t>
+  </si>
+  <si>
+    <t>LMZM23601V5SILR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,6 +363,12 @@
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -391,13 +414,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,7 +741,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30646D7C-2EF8-4895-A69B-9F8D754CCE64}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -939,8 +968,8 @@
       <c r="F7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>17</v>
+      <c r="G7" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="H7" s="3">
         <v>1</v>
@@ -971,8 +1000,8 @@
       <c r="F8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>17</v>
+      <c r="G8" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
@@ -1099,8 +1128,8 @@
       <c r="F12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>17</v>
+      <c r="G12" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -1163,8 +1192,8 @@
       <c r="F14" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>17</v>
+      <c r="G14" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="H14" s="3">
         <v>1</v>
@@ -1195,8 +1224,8 @@
       <c r="F15" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>17</v>
+      <c r="G15" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="H15" s="3">
         <v>1</v>

--- a/HyperRail/PCB Files/Integrated Stepper Motor Driver/BOM/BOM_PartType-Integrated Stepper Motor Driver.xlsx
+++ b/HyperRail/PCB Files/Integrated Stepper Motor Driver/BOM/BOM_PartType-Integrated Stepper Motor Driver.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorian Bruslind\Documents\GitHub\PersonalProjects\HyperRail\PCB Files\Integrated Stepper Motor Driver\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorian Brusind\Documents\GitHub\PersonalProjects\HyperRail\PCB Files\Integrated Stepper Motor Driver\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160A4211-2EDC-44CA-AB71-6424AF210DC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA4CF61-6171-4B0C-B365-46709FB63F6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3F7F2804-6865-49DA-9CB9-E467399E9372}"/>
+    <workbookView xWindow="28680" yWindow="-2370" windowWidth="25440" windowHeight="15390" xr2:uid="{D1478B14-B297-4960-BD3C-C1DBA76AC508}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_PartType-Integrated Stepper" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="121">
   <si>
     <t>Capacitance</t>
   </si>
@@ -66,6 +66,27 @@
     <t>Size</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>Lite-On LTST-C193TBKT-5A</t>
+  </si>
+  <si>
+    <t>Blue 1.6 x 0.8 mm (0603) 130 º Intensity Min 11.2 mcd Typical 15 mcd SMT LED</t>
+  </si>
+  <si>
+    <t>5V, 24V</t>
+  </si>
+  <si>
+    <t>PCB-0603-BoxOverlay</t>
+  </si>
+  <si>
+    <t>CMP-abba620d38e3747d-7</t>
+  </si>
+  <si>
+    <t>LTST-C193TBKT-5A</t>
+  </si>
+  <si>
     <t>10.0 µF</t>
   </si>
   <si>
@@ -87,9 +108,6 @@
     <t>CL31A106KBHNNNE</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>3216</t>
   </si>
   <si>
@@ -258,6 +276,39 @@
     <t>20k</t>
   </si>
   <si>
+    <t>Res1</t>
+  </si>
+  <si>
+    <t>Res Thick Film 0603 4.7K Ohm 1% 0.1W(1/10W) ±100ppm/C Pad SMD Automotive T/R</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t>PCB-g8ucq7vw1s2sdhfr4zem-1</t>
+  </si>
+  <si>
+    <t>CMP-011ec9310fadded9-4</t>
+  </si>
+  <si>
+    <t>4.70 kO</t>
+  </si>
+  <si>
+    <t>Res Thick Film 0603 470 Ohm 5% 0.1W(1/10W) ±100ppm/C Pad SMD Automotive T/R</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>RESC1609X55X30ML10T20</t>
+  </si>
+  <si>
+    <t>CMP-120ade6ce4e1cdcd-1</t>
+  </si>
+  <si>
+    <t>470 O</t>
+  </si>
+  <si>
     <t>TE Connectivity 1825057-3</t>
   </si>
   <si>
@@ -339,13 +390,13 @@
     <t>54601-906WPLF</t>
   </si>
   <si>
+    <t xml:space="preserve">TMC2209-LA-T </t>
+  </si>
+  <si>
+    <t>LMZM23601V5SILR</t>
+  </si>
+  <si>
     <t>1825057-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TMC2209-LA-T </t>
-  </si>
-  <si>
-    <t>LMZM23601V5SILR</t>
   </si>
 </sst>
 </file>
@@ -414,14 +465,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -738,11 +788,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30646D7C-2EF8-4895-A69B-9F8D754CCE64}">
-  <dimension ref="A1:J16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F0D11C-3600-4DE6-A9F9-ADB874D7E88A}">
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,13 +862,13 @@
         <v>16</v>
       </c>
       <c r="H2" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -826,68 +876,68 @@
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="H3" s="3">
         <v>5</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="H4" s="3">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>33</v>
@@ -911,15 +961,15 @@
         <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>39</v>
@@ -943,15 +993,15 @@
         <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>45</v>
@@ -968,118 +1018,118 @@
       <c r="F7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>100</v>
+      <c r="G7" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="H7" s="3">
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="H9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="3">
-        <v>6</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="J10" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>68</v>
@@ -1097,21 +1147,21 @@
         <v>72</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H11" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>74</v>
@@ -1128,57 +1178,57 @@
       <c r="F12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>101</v>
+      <c r="G12" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>86</v>
@@ -1192,81 +1242,177 @@
       <c r="F14" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>102</v>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="H14" s="3">
         <v>1</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="H15" s="3">
         <v>1</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" s="3">
         <v>2</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>17</v>
+      <c r="I19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/HyperRail/PCB Files/Integrated Stepper Motor Driver/BOM/BOM_PartType-Integrated Stepper Motor Driver.xlsx
+++ b/HyperRail/PCB Files/Integrated Stepper Motor Driver/BOM/BOM_PartType-Integrated Stepper Motor Driver.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorian Brusind\Documents\GitHub\PersonalProjects\HyperRail\PCB Files\Integrated Stepper Motor Driver\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA4CF61-6171-4B0C-B365-46709FB63F6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3ACCDFD-C5A5-4544-9A88-3E375CA7C69F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2370" windowWidth="25440" windowHeight="15390" xr2:uid="{D1478B14-B297-4960-BD3C-C1DBA76AC508}"/>
+    <workbookView xWindow="31320" yWindow="2205" windowWidth="19170" windowHeight="10170" xr2:uid="{D1478B14-B297-4960-BD3C-C1DBA76AC508}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_PartType-Integrated Stepper" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="123">
   <si>
     <t>Capacitance</t>
   </si>
@@ -397,6 +397,12 @@
   </si>
   <si>
     <t>1825057-3</t>
+  </si>
+  <si>
+    <t>CRGCQ0603J470R</t>
+  </si>
+  <si>
+    <t>RMCF0603FT4K70</t>
   </si>
 </sst>
 </file>
@@ -792,7 +798,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,7 +1217,7 @@
         <v>84</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>10</v>
+        <v>122</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -1243,7 +1249,7 @@
         <v>89</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="H14" s="3">
         <v>1</v>

--- a/HyperRail/PCB Files/Integrated Stepper Motor Driver/BOM/BOM_PartType-Integrated Stepper Motor Driver.xlsx
+++ b/HyperRail/PCB Files/Integrated Stepper Motor Driver/BOM/BOM_PartType-Integrated Stepper Motor Driver.xlsx
@@ -3,14 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorian Brusind\Documents\GitHub\PersonalProjects\HyperRail\PCB Files\Integrated Stepper Motor Driver\BOM\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3ACCDFD-C5A5-4544-9A88-3E375CA7C69F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E883A8D-091F-434A-B112-7AEA0756F7F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31320" yWindow="2205" windowWidth="19170" windowHeight="10170" xr2:uid="{D1478B14-B297-4960-BD3C-C1DBA76AC508}"/>
+    <workbookView xWindow="4020" yWindow="4860" windowWidth="19170" windowHeight="10170" xr2:uid="{BCB82684-6DCD-4C45-A122-EB82C73E6F19}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_PartType-Integrated Stepper" sheetId="1" r:id="rId1"/>
@@ -34,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="117">
   <si>
     <t>Capacitance</t>
   </si>
@@ -385,31 +380,13 @@
   </si>
   <si>
     <t>CMP-3786467-11</t>
-  </si>
-  <si>
-    <t>54601-906WPLF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TMC2209-LA-T </t>
-  </si>
-  <si>
-    <t>LMZM23601V5SILR</t>
-  </si>
-  <si>
-    <t>1825057-3</t>
-  </si>
-  <si>
-    <t>CRGCQ0603J470R</t>
-  </si>
-  <si>
-    <t>RMCF0603FT4K70</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,12 +397,6 @@
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -471,16 +442,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -794,12 +762,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F0D11C-3600-4DE6-A9F9-ADB874D7E88A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9EB9EAF-4A76-4B93-BEEB-3E281191F774}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1056,8 +1022,8 @@
       <c r="F8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>117</v>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
@@ -1088,8 +1054,8 @@
       <c r="F9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>59</v>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
@@ -1217,7 +1183,7 @@
         <v>84</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -1249,7 +1215,7 @@
         <v>89</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="H14" s="3">
         <v>1</v>
@@ -1280,8 +1246,8 @@
       <c r="F15" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>120</v>
+      <c r="G15" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="H15" s="3">
         <v>1</v>
@@ -1344,8 +1310,8 @@
       <c r="F17" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>118</v>
+      <c r="G17" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="H17" s="3">
         <v>1</v>
@@ -1377,7 +1343,7 @@
         <v>111</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>

--- a/HyperRail/PCB Files/Integrated Stepper Motor Driver/BOM/BOM_PartType-Integrated Stepper Motor Driver.xlsx
+++ b/HyperRail/PCB Files/Integrated Stepper Motor Driver/BOM/BOM_PartType-Integrated Stepper Motor Driver.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E883A8D-091F-434A-B112-7AEA0756F7F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorian Brusind\Documents\GitHub\PersonalProjects\HyperRail\PCB Files\Integrated Stepper Motor Driver\BOM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A85873-CD4A-4E40-9517-A37DD780E793}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="4860" windowWidth="19170" windowHeight="10170" xr2:uid="{BCB82684-6DCD-4C45-A122-EB82C73E6F19}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E41B48D0-9B2B-447C-B94C-255A6E81B237}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_PartType-Integrated Stepper" sheetId="1" r:id="rId1"/>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="124">
   <si>
     <t>Capacitance</t>
   </si>
@@ -380,13 +385,34 @@
   </si>
   <si>
     <t>CMP-3786467-11</t>
+  </si>
+  <si>
+    <t>54601-906WPLF</t>
+  </si>
+  <si>
+    <t>RMCF0603FT4K70</t>
+  </si>
+  <si>
+    <t>CRGCQ0603J470R</t>
+  </si>
+  <si>
+    <t>1-1825059-2</t>
+  </si>
+  <si>
+    <t>TMC2209-LA-T</t>
+  </si>
+  <si>
+    <t>LMZM23601V5SILR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‎SBR80520LT1G‎ </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,8 +426,15 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -412,6 +445,11 @@
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -439,18 +477,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -762,10 +804,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9EB9EAF-4A76-4B93-BEEB-3E281191F774}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599356C5-86D0-41C2-A06C-63457F6D67DA}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -830,7 +874,7 @@
       <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="3">
@@ -862,7 +906,7 @@
       <c r="F3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="3">
@@ -894,7 +938,7 @@
       <c r="F4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="5" t="s">
         <v>30</v>
       </c>
       <c r="H4" s="3">
@@ -926,7 +970,7 @@
       <c r="F5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="5" t="s">
         <v>38</v>
       </c>
       <c r="H5" s="3">
@@ -958,7 +1002,7 @@
       <c r="F6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="5" t="s">
         <v>44</v>
       </c>
       <c r="H6" s="3">
@@ -990,7 +1034,7 @@
       <c r="F7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="5" t="s">
         <v>50</v>
       </c>
       <c r="H7" s="3">
@@ -1022,15 +1066,12 @@
       <c r="F8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>10</v>
+      <c r="G8" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="J8" s="2" t="s">
         <v>10</v>
       </c>
@@ -1054,8 +1095,8 @@
       <c r="F9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>10</v>
+      <c r="G9" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
@@ -1086,7 +1127,7 @@
       <c r="F10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="5" t="s">
         <v>66</v>
       </c>
       <c r="H10" s="3">
@@ -1118,7 +1159,7 @@
       <c r="F11" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="5" t="s">
         <v>73</v>
       </c>
       <c r="H11" s="3">
@@ -1150,7 +1191,7 @@
       <c r="F12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="5" t="s">
         <v>74</v>
       </c>
       <c r="H12" s="3">
@@ -1182,8 +1223,8 @@
       <c r="F13" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>10</v>
+      <c r="G13" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -1214,8 +1255,8 @@
       <c r="F14" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>10</v>
+      <c r="G14" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="H14" s="3">
         <v>1</v>
@@ -1246,8 +1287,8 @@
       <c r="F15" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>10</v>
+      <c r="G15" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="H15" s="3">
         <v>1</v>
@@ -1278,7 +1319,7 @@
       <c r="F16" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="5" t="s">
         <v>101</v>
       </c>
       <c r="H16" s="3">
@@ -1310,8 +1351,8 @@
       <c r="F17" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>10</v>
+      <c r="G17" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="H17" s="3">
         <v>1</v>
@@ -1342,8 +1383,8 @@
       <c r="F18" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>10</v>
+      <c r="G18" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>
@@ -1374,8 +1415,8 @@
       <c r="F19" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>112</v>
+      <c r="G19" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="H19" s="3">
         <v>2</v>
